--- a/legislator/property/output/normal/李昆澤_2012-04-27_財產申報表_tmp72b91.xlsx
+++ b/legislator/property/output/normal/李昆澤_2012-04-27_財產申報表_tmp72b91.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="120">
   <si>
     <t>土地坐落</t>
   </si>
@@ -253,7 +253,19 @@
     <t>total</t>
   </si>
   <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
     <t>台灣高速鐵路股份有限公 司</t>
+  </si>
+  <si>
+    <t>2012-04-27</t>
   </si>
   <si>
     <t>名稱</t>
@@ -1036,19 +1048,19 @@
         <v>55</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1056,22 +1068,22 @@
         <v>105</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E2" s="2">
         <v>4965967</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -1524,13 +1536,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>70</v>
       </c>
@@ -1549,13 +1561,22 @@
       <c r="G1" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1">
         <v>70</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>22</v>
@@ -1571,6 +1592,15 @@
       </c>
       <c r="G2" s="2">
         <v>100000</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1327</v>
       </c>
     </row>
   </sheetData>
@@ -1588,22 +1618,22 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>52</v>
@@ -1614,13 +1644,13 @@
         <v>80</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E2" s="2">
         <v>48.554</v>
@@ -1629,7 +1659,7 @@
         <v>240.42</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="H2" s="2">
         <v>343313.3</v>
@@ -1650,22 +1680,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1673,14 +1703,14 @@
         <v>86</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -1690,22 +1720,22 @@
         <v>87</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>46</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -1723,13 +1753,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1737,10 +1767,10 @@
         <v>93</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>21</v>
@@ -1751,13 +1781,13 @@
         <v>94</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1765,10 +1795,10 @@
         <v>95</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>22</v>

--- a/legislator/property/output/normal/李昆澤_2012-04-27_財產申報表_tmp72b91.xlsx
+++ b/legislator/property/output/normal/李昆澤_2012-04-27_財產申報表_tmp72b91.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="122">
   <si>
     <t>土地坐落</t>
   </si>
@@ -253,6 +253,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>property_category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -262,7 +265,10 @@
     <t>legislator_id</t>
   </si>
   <si>
-    <t>台灣高速鐵路股份有限公 司</t>
+    <t>台灣高速鐵路股份有限公司</t>
+  </si>
+  <si>
+    <t>stock</t>
   </si>
   <si>
     <t>2012-04-27</t>
@@ -1048,19 +1054,19 @@
         <v>55</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1068,22 +1074,22 @@
         <v>105</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E2" s="2">
         <v>4965967</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -1536,13 +1542,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>70</v>
       </c>
@@ -1570,13 +1576,16 @@
       <c r="J1" s="1" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>70</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>22</v>
@@ -1594,12 +1603,15 @@
         <v>100000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="2">
+      <c r="K2" s="2">
         <v>1327</v>
       </c>
     </row>
@@ -1618,22 +1630,22 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>52</v>
@@ -1644,13 +1656,13 @@
         <v>80</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E2" s="2">
         <v>48.554</v>
@@ -1659,7 +1671,7 @@
         <v>240.42</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H2" s="2">
         <v>343313.3</v>
@@ -1680,22 +1692,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1703,14 +1715,14 @@
         <v>86</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -1720,22 +1732,22 @@
         <v>87</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>46</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -1753,13 +1765,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1767,10 +1779,10 @@
         <v>93</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>21</v>
@@ -1781,13 +1793,13 @@
         <v>94</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1795,10 +1807,10 @@
         <v>95</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>22</v>

--- a/legislator/property/output/normal/李昆澤_2012-04-27_財產申報表_tmp72b91.xlsx
+++ b/legislator/property/output/normal/李昆澤_2012-04-27_財產申報表_tmp72b91.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="127">
   <si>
     <t>土地坐落</t>
   </si>
@@ -256,6 +256,9 @@
     <t>property_category</t>
   </si>
   <si>
+    <t>category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -265,13 +268,25 @@
     <t>legislator_id</t>
   </si>
   <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
     <t>台灣高速鐵路股份有限公司</t>
   </si>
   <si>
     <t>stock</t>
   </si>
   <si>
+    <t>normal</t>
+  </si>
+  <si>
     <t>2012-04-27</t>
+  </si>
+  <si>
+    <t>tmp72b91</t>
   </si>
   <si>
     <t>名稱</t>
@@ -1054,19 +1069,19 @@
         <v>55</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1074,22 +1089,22 @@
         <v>105</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="E2" s="2">
         <v>4965967</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -1542,13 +1557,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>70</v>
       </c>
@@ -1579,13 +1594,22 @@
       <c r="K1" s="1" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>70</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>22</v>
@@ -1603,16 +1627,25 @@
         <v>100000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="J2" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="2">
+      <c r="L2" s="2">
         <v>1327</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="N2" s="2">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1630,22 +1663,22 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>52</v>
@@ -1656,13 +1689,13 @@
         <v>80</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E2" s="2">
         <v>48.554</v>
@@ -1671,7 +1704,7 @@
         <v>240.42</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="H2" s="2">
         <v>343313.3</v>
@@ -1692,22 +1725,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1715,14 +1748,14 @@
         <v>86</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -1732,22 +1765,22 @@
         <v>87</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>46</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -1765,13 +1798,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1779,10 +1812,10 @@
         <v>93</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>21</v>
@@ -1793,13 +1826,13 @@
         <v>94</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1807,10 +1840,10 @@
         <v>95</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>22</v>

--- a/legislator/property/output/normal/李昆澤_2012-04-27_財產申報表_tmp72b91.xlsx
+++ b/legislator/property/output/normal/李昆澤_2012-04-27_財產申報表_tmp72b91.xlsx
@@ -23,9 +23,156 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="127">
-  <si>
-    <t>土地坐落</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="132">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>share_portion</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>register_date</t>
+  </si>
+  <si>
+    <t>register_reason</t>
+  </si>
+  <si>
+    <t>acquire_value</t>
+  </si>
+  <si>
+    <t>property_category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>高雄市鼓山區龍中段00400000地號</t>
+  </si>
+  <si>
+    <t>臺中市西屯區廣明段00960000地號</t>
+  </si>
+  <si>
+    <t>臺中市西屯區廣明段02680000地號</t>
+  </si>
+  <si>
+    <t>臺中市西屯區廣明段02680001地號</t>
+  </si>
+  <si>
+    <t>臺中市西屯區廣明段02680002地號</t>
+  </si>
+  <si>
+    <t>臺中市西屯區廣明段02680003地號</t>
+  </si>
+  <si>
+    <t>臺中市西屯區廣明段02680004地號</t>
+  </si>
+  <si>
+    <t>臺中市西屯區西屯段07040000地號</t>
+  </si>
+  <si>
+    <t>臺中市西屯區西屯段07050000地號</t>
+  </si>
+  <si>
+    <t>高雄市三民區灣内段07670000地號</t>
+  </si>
+  <si>
+    <t>10000分之97</t>
+  </si>
+  <si>
+    <t>2940分之1</t>
+  </si>
+  <si>
+    <t>3150分之1</t>
+  </si>
+  <si>
+    <t>10000分之145</t>
+  </si>
+  <si>
+    <t>李昆澤</t>
+  </si>
+  <si>
+    <t>廖翊百</t>
+  </si>
+  <si>
+    <t>廖翊白</t>
+  </si>
+  <si>
+    <t>94年12月12日</t>
+  </si>
+  <si>
+    <t>88年08月23日</t>
+  </si>
+  <si>
+    <t>98年05月11闩</t>
+  </si>
+  <si>
+    <t>98年05月11曰</t>
+  </si>
+  <si>
+    <t>88年09月23H</t>
+  </si>
+  <si>
+    <t>100年10月14日</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>繼承</t>
+  </si>
+  <si>
+    <t>(超過五年）</t>
+  </si>
+  <si>
+    <t>720(繼承）</t>
+  </si>
+  <si>
+    <t>900(繼承）</t>
+  </si>
+  <si>
+    <t>9180(繼承）</t>
+  </si>
+  <si>
+    <t>291(繼承）</t>
+  </si>
+  <si>
+    <t>2160(繼承)</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2012-04-27</t>
+  </si>
+  <si>
+    <t>tmp72b91</t>
+  </si>
+  <si>
+    <t>建物標示</t>
   </si>
   <si>
     <t>面積（平方公尺）</t>
@@ -46,115 +193,19 @@
     <t>取得價額</t>
   </si>
   <si>
-    <t>高雄市鼓山區龍中段0040-0000 地號</t>
-  </si>
-  <si>
-    <t>臺中市西屯區廣明段0096-0000 地號</t>
-  </si>
-  <si>
-    <t>臺中市西屯區廣明段0268-0000 地號</t>
-  </si>
-  <si>
-    <t>臺中市西屯區廣明段0268-0001 地號</t>
-  </si>
-  <si>
-    <t>臺中市西屯區廣明段0268-0002 地號</t>
-  </si>
-  <si>
-    <t>臺中市西屯區廣明段0268-0003 地號</t>
-  </si>
-  <si>
-    <t>臺中市西屯區廣明段0268-0004 地號</t>
-  </si>
-  <si>
-    <t>臺中市西屯區西屯段0704-0000 地號</t>
-  </si>
-  <si>
-    <t>臺中市西屯區西屯段0705-0000 地號</t>
-  </si>
-  <si>
-    <t>高雄市三民區灣内段0767-0000 地號</t>
-  </si>
-  <si>
-    <t>10000分之 97</t>
-  </si>
-  <si>
-    <t>2940分之1</t>
-  </si>
-  <si>
-    <t>3150分之1</t>
-  </si>
-  <si>
-    <t>10000分之 145</t>
-  </si>
-  <si>
-    <t>李昆澤</t>
-  </si>
-  <si>
-    <t>廖翊百</t>
-  </si>
-  <si>
-    <t>廖翊白'</t>
-  </si>
-  <si>
-    <t>94年12月 12日</t>
-  </si>
-  <si>
-    <t>88年08月 23日</t>
-  </si>
-  <si>
-    <t>98年05月 11闩</t>
-  </si>
-  <si>
-    <t>98年05月 11曰</t>
-  </si>
-  <si>
-    <t>88年09月 23 H</t>
-  </si>
-  <si>
-    <t>100 年 10 月14日</t>
-  </si>
-  <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>繼承</t>
-  </si>
-  <si>
-    <t>(超過五年）</t>
-  </si>
-  <si>
-    <t>720 (繼承）</t>
-  </si>
-  <si>
-    <t>900(繼承）</t>
-  </si>
-  <si>
-    <t>9,180(繼承）</t>
-  </si>
-  <si>
-    <t>291 (繼承）</t>
-  </si>
-  <si>
-    <t>2,160(繼承)</t>
-  </si>
-  <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>高雄市鼓山區龍中段02728-000 建號</t>
-  </si>
-  <si>
-    <t>高雄市~民區灣内段00743-000 建號</t>
+    <t>高雄市鼓山區龍中段02728000建號</t>
+  </si>
+  <si>
+    <t>高雄市~民區灣内段00743000建號</t>
   </si>
   <si>
     <t>全部</t>
   </si>
   <si>
-    <t>94年12月 15 H</t>
-  </si>
-  <si>
-    <t>100 年 10 月14曰</t>
+    <t>94年12月15H</t>
+  </si>
+  <si>
+    <t>100年10月14曰</t>
   </si>
   <si>
     <t>廠牌型號</t>
@@ -172,10 +223,10 @@
     <t>中華三菱C016SA</t>
   </si>
   <si>
-    <t>100 年 03 月31曰</t>
-  </si>
-  <si>
-    <t>96年07月 30日</t>
+    <t>100年03月31曰</t>
+  </si>
+  <si>
+    <t>96年07月30日</t>
   </si>
   <si>
     <t>幣別</t>
@@ -214,7 +265,7 @@
     <t>彰化商業銀行博愛分行</t>
   </si>
   <si>
-    <t>高雄大順郵局（第5 0支 局）</t>
+    <t>高雄大順郵局（第50支局）</t>
   </si>
   <si>
     <t>活期儲蓄存款</t>
@@ -235,12 +286,6 @@
     <t>李〇霖</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>owner</t>
-  </si>
-  <si>
     <t>quantity</t>
   </si>
   <si>
@@ -253,42 +298,12 @@
     <t>total</t>
   </si>
   <si>
-    <t>property_category</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>legislator_name</t>
-  </si>
-  <si>
-    <t>legislator_id</t>
-  </si>
-  <si>
-    <t>source_file</t>
-  </si>
-  <si>
-    <t>index</t>
-  </si>
-  <si>
     <t>台灣高速鐵路股份有限公司</t>
   </si>
   <si>
     <t>stock</t>
   </si>
   <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>2012-04-27</t>
-  </si>
-  <si>
-    <t>tmp72b91</t>
-  </si>
-  <si>
     <t>名稱</t>
   </si>
   <si>
@@ -328,22 +343,22 @@
     <t>人</t>
   </si>
   <si>
-    <t>(九）珠寶、古董、字畫及其</t>
-  </si>
-  <si>
-    <t>財 產種類</t>
-  </si>
-  <si>
-    <t>-他具有相當價值之財產（總作</t>
-  </si>
-  <si>
-    <t>項 /</t>
+    <t>(九）珠寶古董字畫及其</t>
+  </si>
+  <si>
+    <t>財產種類</t>
+  </si>
+  <si>
+    <t>他具有相當價值之財產（總作</t>
+  </si>
+  <si>
+    <t>項</t>
   </si>
   <si>
     <t>件</t>
   </si>
   <si>
-    <t>t額：新臺幣 元）</t>
+    <t>t額：新臺幣元）</t>
   </si>
   <si>
     <t>價</t>
@@ -370,7 +385,7 @@
     <t>富邦人壽</t>
   </si>
   <si>
-    <t>南山人壽快活人生變額年金 保險</t>
+    <t>南山人壽快活人生變額年金保險</t>
   </si>
   <si>
     <t>國泰人壽添美發年年保險</t>
@@ -400,10 +415,10 @@
     <t>購屋貸款</t>
   </si>
   <si>
-    <t>台灣銀行前金分行 高雄市前金區中正四路</t>
-  </si>
-  <si>
-    <t>100年10月 18日</t>
+    <t>台灣銀行前金分行高雄市前金區中正四路</t>
+  </si>
+  <si>
+    <t>100年10月18日</t>
   </si>
 </sst>
 </file>
@@ -762,13 +777,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -790,265 +805,496 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2">
         <v>18.31</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>39</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1327</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="O2" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2">
         <v>0.16</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>39</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1327</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="O3" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2">
         <v>0.04</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1327</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="O4" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2">
         <v>0.05</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1327</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="O5" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2">
         <v>0.51</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1327</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="O6" s="2">
         <v>18</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>19</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C7" s="2">
         <v>0.51</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M7" s="2">
+        <v>1327</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="O7" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>20</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C8" s="2">
         <v>0.12</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>44</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M8" s="2">
+        <v>1327</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="O8" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>21</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C9" s="2">
         <v>0.15</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L9" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="M9" s="2">
+        <v>1327</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="O9" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>22</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C10" s="2">
         <v>0.74</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L10" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G10" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="M10" s="2">
+        <v>1327</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="O10" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>23</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C11" s="2">
         <v>1275.23</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H11" s="2">
         <v>7390000</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M11" s="2">
+        <v>1327</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="O11" s="2">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1066,22 +1312,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1089,22 +1335,22 @@
         <v>105</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="E2" s="2">
         <v>4965967</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -1122,25 +1368,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>54</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1148,25 +1394,25 @@
         <v>28</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="C2" s="2">
         <v>111.34</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1174,22 +1420,22 @@
         <v>29</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="C3" s="2">
         <v>87.57</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H3" s="2">
         <v>7390000</v>
@@ -1210,22 +1456,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>54</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1233,19 +1479,19 @@
         <v>39</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="C2" s="2">
         <v>2198</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G2" s="2">
         <v>1110000</v>
@@ -1256,19 +1502,19 @@
         <v>40</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="C3" s="2">
         <v>1584</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G3" s="2">
         <v>640000</v>
@@ -1289,13 +1535,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1303,10 +1549,10 @@
         <v>50</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D2" s="2">
         <v>25000</v>
@@ -1317,10 +1563,10 @@
         <v>51</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D3" s="2">
         <v>26000</v>
@@ -1341,22 +1587,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1364,16 +1610,16 @@
         <v>55</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2">
@@ -1385,16 +1631,16 @@
         <v>56</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2">
@@ -1406,16 +1652,16 @@
         <v>57</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2">
@@ -1427,16 +1673,16 @@
         <v>58</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2">
@@ -1448,16 +1694,16 @@
         <v>59</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
@@ -1469,16 +1715,16 @@
         <v>60</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2">
@@ -1490,16 +1736,16 @@
         <v>61</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2">
@@ -1511,16 +1757,16 @@
         <v>62</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2">
@@ -1532,16 +1778,16 @@
         <v>63</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F10" s="2">
         <v>6231</v>
@@ -1565,43 +1811,43 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>71</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>76</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>77</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>79</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>80</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>82</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -1609,10 +1855,10 @@
         <v>70</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D2" s="2">
         <v>10000</v>
@@ -1621,28 +1867,28 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="G2" s="2">
         <v>100000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>86</v>
+        <v>47</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="L2" s="2">
         <v>1327</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="N2" s="2">
         <v>70</v>
@@ -1663,25 +1909,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1689,13 +1935,13 @@
         <v>80</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E2" s="2">
         <v>48.554</v>
@@ -1704,7 +1950,7 @@
         <v>240.42</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="H2" s="2">
         <v>343313.3</v>
@@ -1725,22 +1971,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1748,14 +1994,14 @@
         <v>86</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -1765,22 +2011,22 @@
         <v>87</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -1798,13 +2044,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1812,13 +2058,13 @@
         <v>93</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1826,13 +2072,13 @@
         <v>94</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1840,13 +2086,13 @@
         <v>95</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/李昆澤_2012-04-27_財產申報表_tmp72b91.xlsx
+++ b/legislator/property/output/normal/李昆澤_2012-04-27_財產申報表_tmp72b91.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="101">
   <si>
     <t>name</t>
   </si>
@@ -73,6 +73,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>高雄市鼓山區龍中段00400000地號</t>
+  </si>
+  <si>
     <t>臺中市西屯區廣明段00960000地號</t>
   </si>
   <si>
@@ -100,6 +103,9 @@
     <t>高雄市三民區灣内段07670000地號</t>
   </si>
   <si>
+    <t>10000分之97</t>
+  </si>
+  <si>
     <t>2940分之1</t>
   </si>
   <si>
@@ -109,12 +115,18 @@
     <t>10000分之145</t>
   </si>
   <si>
+    <t>李昆澤</t>
+  </si>
+  <si>
     <t>廖翊百</t>
   </si>
   <si>
     <t>廖翊白</t>
   </si>
   <si>
+    <t>94年12月12日</t>
+  </si>
+  <si>
     <t>88年08月23日</t>
   </si>
   <si>
@@ -130,12 +142,12 @@
     <t>100年10月14日</t>
   </si>
   <si>
+    <t>買賣</t>
+  </si>
+  <si>
     <t>繼承</t>
   </si>
   <si>
-    <t>買賣</t>
-  </si>
-  <si>
     <t>(超過五年）</t>
   </si>
   <si>
@@ -163,24 +175,21 @@
     <t>2012-04-27</t>
   </si>
   <si>
-    <t>李昆澤</t>
-  </si>
-  <si>
     <t>tmp72b91</t>
   </si>
   <si>
     <t>高雄市鼓山區龍中段02728000建號</t>
   </si>
   <si>
+    <t>高雄市~民區灣内段00743000建號</t>
+  </si>
+  <si>
     <t>全部</t>
   </si>
   <si>
     <t>94年12月15H</t>
   </si>
   <si>
-    <t>高雄市~民區灣内段00743000建號</t>
-  </si>
-  <si>
     <t>100年10月14曰</t>
   </si>
   <si>
@@ -245,6 +254,12 @@
   </si>
   <si>
     <t>currency</t>
+  </si>
+  <si>
+    <t>台灣高速鐵路股份有限公司</t>
+  </si>
+  <si>
+    <t>stock</t>
   </si>
   <si>
     <t>JF東方基金</t>
@@ -669,7 +684,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q10"/>
+  <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -727,219 +742,219 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>0.16</v>
+        <v>18.31</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="M2" s="2">
         <v>1327</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="O2" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P2" s="2">
-        <v>0.000340136054421769</v>
+        <v>0.0097</v>
       </c>
       <c r="Q2" s="2">
-        <v>5.4421768707483e-05</v>
+        <v>0.177607</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="2">
-        <v>0.04</v>
+        <v>0.16</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="M3" s="2">
         <v>1327</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="O3" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P3" s="2">
         <v>0.000340136054421769</v>
       </c>
       <c r="Q3" s="2">
-        <v>1.36054421768707e-05</v>
+        <v>5.4421768707483e-05</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="2">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="M4" s="2">
         <v>1327</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="O4" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P4" s="2">
         <v>0.000340136054421769</v>
       </c>
       <c r="Q4" s="2">
-        <v>1.70068027210884e-05</v>
+        <v>1.36054421768707e-05</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C5" s="2">
-        <v>0.51</v>
+        <v>0.05</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="M5" s="2">
         <v>1327</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="O5" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P5" s="2">
         <v>0.000340136054421769</v>
       </c>
       <c r="Q5" s="2">
-        <v>0.000173469387755102</v>
+        <v>1.70068027210884e-05</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>20</v>
@@ -948,40 +963,40 @@
         <v>0.51</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="M6" s="2">
         <v>1327</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="O6" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P6" s="2">
         <v>0.000340136054421769</v>
@@ -992,213 +1007,266 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C7" s="2">
-        <v>0.12</v>
+        <v>0.51</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="M7" s="2">
         <v>1327</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="O7" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P7" s="2">
         <v>0.000340136054421769</v>
       </c>
       <c r="Q7" s="2">
-        <v>4.08163265306122e-05</v>
+        <v>0.000173469387755102</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C8" s="2">
-        <v>0.15</v>
+        <v>0.12</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="M8" s="2">
         <v>1327</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="O8" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P8" s="2">
-        <v>0.000317460317460317</v>
+        <v>0.000340136054421769</v>
       </c>
       <c r="Q8" s="2">
-        <v>4.76190476190476e-05</v>
+        <v>4.08163265306122e-05</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="1">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C9" s="2">
-        <v>0.74</v>
+        <v>0.15</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="M9" s="2">
         <v>1327</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="O9" s="2">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P9" s="2">
         <v>0.000317460317460317</v>
       </c>
       <c r="Q9" s="2">
-        <v>0.000234920634920635</v>
+        <v>4.76190476190476e-05</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="1">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C10" s="2">
-        <v>1275.23</v>
+        <v>0.74</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H10" s="2">
-        <v>7390000</v>
+        <v>40</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="M10" s="2">
         <v>1327</v>
       </c>
       <c r="N10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="O10" s="2">
+        <v>22</v>
+      </c>
+      <c r="P10" s="2">
+        <v>0.000317460317460317</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>0.000234920634920635</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" s="1">
+        <v>23</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1275.23</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H11" s="2">
+        <v>7390000</v>
+      </c>
+      <c r="I11" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="O10" s="2">
+      <c r="J11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M11" s="2">
+        <v>1327</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="O11" s="2">
         <v>23</v>
       </c>
-      <c r="P10" s="2">
+      <c r="P11" s="2">
         <v>0.0145</v>
       </c>
-      <c r="Q10" s="2">
+      <c r="Q11" s="2">
         <v>18.490835</v>
       </c>
     </row>
@@ -1209,30 +1277,53 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:G1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:7">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E1" s="1">
         <v>4965967</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>105</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F2" s="2">
+        <v>4965967</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1241,6 +1332,626 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Q3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="1">
+        <v>28</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="2">
+        <v>111.34</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1327</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="O2" s="2">
+        <v>28</v>
+      </c>
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>111.34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="1">
+        <v>29</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="2">
+        <v>87.57</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" s="2">
+        <v>7390000</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1327</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="O3" s="2">
+        <v>29</v>
+      </c>
+      <c r="P3" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>87.57</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2198</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="1">
+        <v>1110000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>39</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="2">
+        <v>2198</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" s="2">
+        <v>1110000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>40</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1584</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="2">
+        <v>640000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="B1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="1">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1">
+        <v>50</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="2">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>51</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="2">
+        <v>26000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1">
+        <v>372695</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>55</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2">
+        <v>372695</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>56</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2">
+        <v>468533</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>57</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2">
+        <v>22342</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
+        <v>58</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2">
+        <v>56155</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
+        <v>59</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2">
+        <v>683410</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
+        <v>60</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2">
+        <v>123001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
+        <v>61</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1">
+        <v>62</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2">
+        <v>202368</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1">
+        <v>63</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="2">
+        <v>6231</v>
+      </c>
+      <c r="G10" s="2">
+        <v>143313</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="1">
+        <v>70</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2">
+        <v>10000</v>
+      </c>
+      <c r="E2" s="2">
+        <v>10</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G2" s="2">
+        <v>100000</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1327</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="N2" s="2">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H2"/>
   <sheetViews>
@@ -1250,51 +1961,51 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C1" s="1">
-        <v>111.34</v>
+        <v>79</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>50</v>
+        <v>80</v>
+      </c>
+      <c r="E1" s="1">
+        <v>48.554</v>
+      </c>
+      <c r="F1" s="1">
+        <v>240.42</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>37</v>
+        <v>81</v>
+      </c>
+      <c r="H1" s="1">
+        <v>343313.3</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C2" s="2">
-        <v>87.57</v>
+        <v>79</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>52</v>
+        <v>80</v>
+      </c>
+      <c r="E2" s="2">
+        <v>48.554</v>
+      </c>
+      <c r="F2" s="2">
+        <v>240.42</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>36</v>
+        <v>81</v>
       </c>
       <c r="H2" s="2">
-        <v>7390000</v>
+        <v>343313.3</v>
       </c>
     </row>
   </sheetData>
@@ -1302,9 +2013,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1312,45 +2023,56 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C1" s="1">
-        <v>2198</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>46</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G1" s="1">
-        <v>1110000</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>40</v>
+        <v>86</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C2" s="2">
-        <v>1584</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G2" s="2">
-        <v>640000</v>
+        <v>82</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>87</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1358,9 +2080,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1368,420 +2090,55 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1" s="1">
-        <v>25000</v>
+        <v>92</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="2">
-        <v>26000</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1">
-        <v>372695</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>56</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2">
-        <v>468533</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>57</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2">
-        <v>22342</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1">
-        <v>58</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2">
-        <v>56155</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1">
-        <v>59</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2">
-        <v>683410</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1">
-        <v>60</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2">
-        <v>123001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1">
-        <v>61</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="1">
-        <v>62</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2">
-        <v>202368</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="1">
-        <v>63</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" s="2">
-        <v>6231</v>
-      </c>
-      <c r="G9" s="2">
-        <v>143313</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:N1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="2:14">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:H1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="2:8">
-      <c r="B1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E1" s="1">
-        <v>48.554</v>
-      </c>
-      <c r="F1" s="1">
-        <v>240.42</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="H1" s="1">
-        <v>343313.3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>87</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="B1" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1">
-        <v>94</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>92</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1">
+        <v>94</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>28</v>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>95</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/李昆澤_2012-04-27_財產申報表_tmp72b91.xlsx
+++ b/legislator/property/output/normal/李昆澤_2012-04-27_財產申報表_tmp72b91.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="102">
   <si>
     <t>name</t>
   </si>
@@ -193,13 +193,16 @@
     <t>100年10月14曰</t>
   </si>
   <si>
+    <t>capacity</t>
+  </si>
+  <si>
     <t>納智捷G91SPCA</t>
   </si>
   <si>
+    <t>中華三菱C016SA</t>
+  </si>
+  <si>
     <t>100年03月31曰</t>
-  </si>
-  <si>
-    <t>中華三菱C016SA</t>
   </si>
   <si>
     <t>96年07月30日</t>
@@ -1285,22 +1288,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E1" s="1">
         <v>4965967</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1308,22 +1311,22 @@
         <v>105</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F2" s="2">
         <v>4965967</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -1502,38 +1505,59 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="1">
-        <v>2198</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>57</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G1" s="1">
-        <v>1110000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>39</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C2" s="2">
         <v>2198</v>
@@ -1542,7 +1566,7 @@
         <v>30</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>39</v>
@@ -1550,8 +1574,29 @@
       <c r="G2" s="2">
         <v>1110000</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1327</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="N2" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>40</v>
       </c>
@@ -1565,13 +1610,34 @@
         <v>31</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>39</v>
       </c>
       <c r="G3" s="2">
         <v>640000</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1327</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="N3" s="2">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1589,7 +1655,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>30</v>
@@ -1603,7 +1669,7 @@
         <v>50</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>30</v>
@@ -1617,7 +1683,7 @@
         <v>51</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>31</v>
@@ -1641,13 +1707,13 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>30</v>
@@ -1662,13 +1728,13 @@
         <v>55</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>60</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>30</v>
@@ -1683,13 +1749,13 @@
         <v>56</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>31</v>
@@ -1704,13 +1770,13 @@
         <v>57</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>31</v>
@@ -1725,13 +1791,13 @@
         <v>58</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>31</v>
@@ -1746,13 +1812,13 @@
         <v>59</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>31</v>
@@ -1767,13 +1833,13 @@
         <v>60</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>31</v>
@@ -1788,13 +1854,13 @@
         <v>61</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>31</v>
@@ -1809,16 +1875,16 @@
         <v>62</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2">
@@ -1830,13 +1896,13 @@
         <v>63</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>31</v>
@@ -1869,13 +1935,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1907,7 +1973,7 @@
         <v>70</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>31</v>
@@ -1919,13 +1985,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G2" s="2">
         <v>100000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>48</v>
@@ -1961,13 +2027,13 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E1" s="1">
         <v>48.554</v>
@@ -1976,7 +2042,7 @@
         <v>240.42</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H1" s="1">
         <v>343313.3</v>
@@ -1987,13 +2053,13 @@
         <v>80</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E2" s="2">
         <v>48.554</v>
@@ -2002,7 +2068,7 @@
         <v>240.42</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H2" s="2">
         <v>343313.3</v>
@@ -2023,14 +2089,14 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -2040,16 +2106,16 @@
         <v>86</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2057,22 +2123,22 @@
         <v>87</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -2090,10 +2156,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>30</v>
@@ -2104,10 +2170,10 @@
         <v>93</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>30</v>
@@ -2118,13 +2184,13 @@
         <v>94</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2132,10 +2198,10 @@
         <v>95</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>31</v>

--- a/legislator/property/output/normal/李昆澤_2012-04-27_財產申報表_tmp72b91.xlsx
+++ b/legislator/property/output/normal/李昆澤_2012-04-27_財產申報表_tmp72b91.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="104">
   <si>
     <t>name</t>
   </si>
@@ -193,6 +193,9 @@
     <t>100年10月14曰</t>
   </si>
   <si>
+    <t>building</t>
+  </si>
+  <si>
     <t>capacity</t>
   </si>
   <si>
@@ -206,6 +209,9 @@
   </si>
   <si>
     <t>96年07月30日</t>
+  </si>
+  <si>
+    <t>car</t>
   </si>
   <si>
     <t>新臺幣</t>
@@ -1288,22 +1294,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E1" s="1">
         <v>4965967</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1311,22 +1317,22 @@
         <v>105</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F2" s="2">
         <v>4965967</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -1418,7 +1424,7 @@
         <v>41</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>48</v>
@@ -1471,7 +1477,7 @@
         <v>7390000</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>48</v>
@@ -1516,7 +1522,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1557,7 +1563,7 @@
         <v>39</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C2" s="2">
         <v>2198</v>
@@ -1566,7 +1572,7 @@
         <v>30</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>39</v>
@@ -1575,7 +1581,7 @@
         <v>1110000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>48</v>
@@ -1601,7 +1607,7 @@
         <v>40</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C3" s="2">
         <v>1584</v>
@@ -1610,7 +1616,7 @@
         <v>31</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>39</v>
@@ -1619,7 +1625,7 @@
         <v>640000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>48</v>
@@ -1655,7 +1661,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>30</v>
@@ -1669,7 +1675,7 @@
         <v>50</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>30</v>
@@ -1683,7 +1689,7 @@
         <v>51</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>31</v>
@@ -1707,13 +1713,13 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>30</v>
@@ -1728,13 +1734,13 @@
         <v>55</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>61</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>30</v>
@@ -1749,13 +1755,13 @@
         <v>56</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>61</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>31</v>
@@ -1770,13 +1776,13 @@
         <v>57</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>61</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>31</v>
@@ -1791,13 +1797,13 @@
         <v>58</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>31</v>
@@ -1812,13 +1818,13 @@
         <v>59</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>61</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>31</v>
@@ -1833,13 +1839,13 @@
         <v>60</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>31</v>
@@ -1854,13 +1860,13 @@
         <v>61</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>31</v>
@@ -1875,16 +1881,16 @@
         <v>62</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="E9" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2">
@@ -1896,13 +1902,13 @@
         <v>63</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>31</v>
@@ -1935,13 +1941,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1973,7 +1979,7 @@
         <v>70</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>31</v>
@@ -1985,13 +1991,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G2" s="2">
         <v>100000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>48</v>
@@ -2027,13 +2033,13 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E1" s="1">
         <v>48.554</v>
@@ -2042,7 +2048,7 @@
         <v>240.42</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H1" s="1">
         <v>343313.3</v>
@@ -2053,13 +2059,13 @@
         <v>80</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E2" s="2">
         <v>48.554</v>
@@ -2068,7 +2074,7 @@
         <v>240.42</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H2" s="2">
         <v>343313.3</v>
@@ -2089,14 +2095,14 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -2106,16 +2112,16 @@
         <v>86</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2123,22 +2129,22 @@
         <v>87</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -2156,10 +2162,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>30</v>
@@ -2170,10 +2176,10 @@
         <v>93</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>30</v>
@@ -2184,13 +2190,13 @@
         <v>94</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2198,10 +2204,10 @@
         <v>95</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>31</v>

--- a/legislator/property/output/normal/李昆澤_2012-04-27_財產申報表_tmp72b91.xlsx
+++ b/legislator/property/output/normal/李昆澤_2012-04-27_財產申報表_tmp72b91.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="108">
   <si>
     <t>name</t>
   </si>
@@ -214,33 +214,45 @@
     <t>car</t>
   </si>
   <si>
+    <t>currency</t>
+  </si>
+  <si>
     <t>新臺幣</t>
   </si>
   <si>
+    <t>cash</t>
+  </si>
+  <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>deposit_type</t>
+  </si>
+  <si>
     <t>高雄銀行三民分行</t>
   </si>
   <si>
+    <t>華南商業銀行高雄分行</t>
+  </si>
+  <si>
+    <t>花旗（台灣）銀行高雄分行</t>
+  </si>
+  <si>
+    <t>臺灣銀行前金分行</t>
+  </si>
+  <si>
+    <t>高雄新樂郵局（第1支局）</t>
+  </si>
+  <si>
+    <t>彰化商業銀行博愛分行</t>
+  </si>
+  <si>
+    <t>高雄大順郵局（第50支局）</t>
+  </si>
+  <si>
     <t>活期儲蓄存款</t>
   </si>
   <si>
-    <t>華南商業銀行高雄分行</t>
-  </si>
-  <si>
-    <t>花旗（台灣）銀行高雄分行</t>
-  </si>
-  <si>
-    <t>臺灣銀行前金分行</t>
-  </si>
-  <si>
-    <t>高雄新樂郵局（第1支局）</t>
-  </si>
-  <si>
-    <t>彰化商業銀行博愛分行</t>
-  </si>
-  <si>
-    <t>高雄大順郵局（第50支局）</t>
-  </si>
-  <si>
     <t>綜合存款</t>
   </si>
   <si>
@@ -256,13 +268,13 @@
     <t>李〇霖</t>
   </si>
   <si>
+    <t>deposit</t>
+  </si>
+  <si>
     <t>quantity</t>
   </si>
   <si>
     <t>face_value</t>
-  </si>
-  <si>
-    <t>currency</t>
   </si>
   <si>
     <t>台灣高速鐵路股份有限公司</t>
@@ -1294,22 +1306,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E1" s="1">
         <v>4965967</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1317,22 +1329,22 @@
         <v>105</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="F2" s="2">
         <v>4965967</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -1653,29 +1665,50 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>63</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" s="1">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>50</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>30</v>
@@ -1683,19 +1716,61 @@
       <c r="D2" s="2">
         <v>25000</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1327</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K2" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>51</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D3" s="2">
         <v>26000</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1327</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K3" s="2">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1705,219 +1780,417 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>63</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1">
-        <v>372695</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>55</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="E2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2">
+      <c r="F2" s="2">
         <v>372695</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="G2" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="2">
+        <v>1327</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>56</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2">
+      <c r="F3" s="2">
         <v>468533</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="G3" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" s="2">
+        <v>1327</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M3" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>57</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2">
+      <c r="F4" s="2">
         <v>22342</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="G4" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1327</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M4" s="2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>58</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2">
+      <c r="F5" s="2">
         <v>56155</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="G5" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5" s="2">
+        <v>1327</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M5" s="2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>59</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2">
+      <c r="F6" s="2">
         <v>683410</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="G6" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="2">
+        <v>1327</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M6" s="2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>60</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2">
+      <c r="F7" s="2">
         <v>123001</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="G7" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K7" s="2">
+        <v>1327</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M7" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>61</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2">
+      <c r="F8" s="2">
         <v>1000000</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="G8" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K8" s="2">
+        <v>1327</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M8" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>62</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2">
+        <v>80</v>
+      </c>
+      <c r="F9" s="2">
         <v>202368</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="G9" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K9" s="2">
+        <v>1327</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M9" s="2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>63</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>31</v>
       </c>
       <c r="F10" s="2">
-        <v>6231</v>
-      </c>
-      <c r="G10" s="2">
         <v>143313</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K10" s="2">
+        <v>1327</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M10" s="2">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1941,13 +2214,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1979,7 +2252,7 @@
         <v>70</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>31</v>
@@ -1991,13 +2264,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G2" s="2">
         <v>100000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>48</v>
@@ -2033,13 +2306,13 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E1" s="1">
         <v>48.554</v>
@@ -2048,7 +2321,7 @@
         <v>240.42</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="H1" s="1">
         <v>343313.3</v>
@@ -2059,13 +2332,13 @@
         <v>80</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E2" s="2">
         <v>48.554</v>
@@ -2074,7 +2347,7 @@
         <v>240.42</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="H2" s="2">
         <v>343313.3</v>
@@ -2095,14 +2368,14 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -2112,16 +2385,16 @@
         <v>86</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2129,22 +2402,22 @@
         <v>87</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -2162,10 +2435,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>30</v>
@@ -2176,10 +2449,10 @@
         <v>93</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>30</v>
@@ -2190,13 +2463,13 @@
         <v>94</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2204,10 +2477,10 @@
         <v>95</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>31</v>

--- a/legislator/property/output/normal/李昆澤_2012-04-27_財產申報表_tmp72b91.xlsx
+++ b/legislator/property/output/normal/李昆澤_2012-04-27_財產申報表_tmp72b91.xlsx
@@ -14,16 +14,15 @@
     <sheet name="存款" sheetId="5" r:id="rId5"/>
     <sheet name="股票" sheetId="6" r:id="rId6"/>
     <sheet name="基金受益憑證" sheetId="7" r:id="rId7"/>
-    <sheet name="其他有價證券" sheetId="8" r:id="rId8"/>
-    <sheet name="保險" sheetId="9" r:id="rId9"/>
-    <sheet name="債務" sheetId="10" r:id="rId10"/>
+    <sheet name="保險" sheetId="8" r:id="rId8"/>
+    <sheet name="債務" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="101">
   <si>
     <t>name</t>
   </si>
@@ -283,6 +282,9 @@
     <t>stock</t>
   </si>
   <si>
+    <t>dealer</t>
+  </si>
+  <si>
     <t>JF東方基金</t>
   </si>
   <si>
@@ -292,31 +294,7 @@
     <t>美金</t>
   </si>
   <si>
-    <t>(九）珠寶古董字畫及其</t>
-  </si>
-  <si>
-    <t>他具有相當價值之財產（總作</t>
-  </si>
-  <si>
-    <t>t額：新臺幣元）</t>
-  </si>
-  <si>
-    <t>財產種類</t>
-  </si>
-  <si>
-    <t>項</t>
-  </si>
-  <si>
-    <t>件</t>
-  </si>
-  <si>
-    <t>價</t>
-  </si>
-  <si>
-    <t>額</t>
-  </si>
-  <si>
-    <t>所有人</t>
+    <t>fund</t>
   </si>
   <si>
     <t>南山人壽</t>
@@ -1296,62 +1274,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="E1" s="1">
-        <v>4965967</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>105</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="F2" s="2">
-        <v>4965967</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q3"/>
@@ -2298,47 +2220,68 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E1" s="1">
-        <v>48.554</v>
-      </c>
-      <c r="F1" s="1">
-        <v>240.42</v>
+      <c r="E1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="H1" s="1">
-        <v>343313.3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>63</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>80</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E2" s="2">
         <v>48.554</v>
@@ -2347,10 +2290,31 @@
         <v>240.42</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H2" s="2">
         <v>343313.3</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1327</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="O2" s="2">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -2359,73 +2323,6 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>86</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>87</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -2435,10 +2332,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>30</v>
@@ -2449,10 +2346,10 @@
         <v>93</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>30</v>
@@ -2463,13 +2360,13 @@
         <v>94</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2477,13 +2374,69 @@
         <v>95</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1" s="1">
+        <v>4965967</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>105</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F2" s="2">
+        <v>4965967</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/李昆澤_2012-04-27_財產申報表_tmp72b91.xlsx
+++ b/legislator/property/output/normal/李昆澤_2012-04-27_財產申報表_tmp72b91.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="106">
   <si>
     <t>name</t>
   </si>
@@ -297,18 +297,21 @@
     <t>fund</t>
   </si>
   <si>
+    <t>company</t>
+  </si>
+  <si>
     <t>南山人壽</t>
   </si>
   <si>
+    <t>國泰人壽</t>
+  </si>
+  <si>
+    <t>富邦人壽</t>
+  </si>
+  <si>
     <t>南山人壽快活人生變額年金保險</t>
   </si>
   <si>
-    <t>國泰人壽</t>
-  </si>
-  <si>
-    <t>富邦人壽</t>
-  </si>
-  <si>
     <t>國泰人壽添美發年年保險</t>
   </si>
   <si>
@@ -318,6 +321,15 @@
     <t>廖朔百</t>
   </si>
   <si>
+    <t>insurance</t>
+  </si>
+  <si>
+    <t>species</t>
+  </si>
+  <si>
+    <t>debtor</t>
+  </si>
+  <si>
     <t>購屋貸款</t>
   </si>
   <si>
@@ -325,6 +337,9 @@
   </si>
   <si>
     <t>100年10月18日</t>
+  </si>
+  <si>
+    <t>debt</t>
   </si>
 </sst>
 </file>
@@ -2324,38 +2339,80 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>91</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>93</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1327</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K2" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>94</v>
       </c>
@@ -2363,13 +2420,34 @@
         <v>93</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>98</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1327</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K3" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>95</v>
       </c>
@@ -2377,10 +2455,31 @@
         <v>94</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>31</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="2">
+        <v>1327</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K4" s="2">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -2390,53 +2489,95 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>31</v>
+        <v>101</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="E1" s="1">
-        <v>4965967</v>
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>105</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>98</v>
+        <v>31</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="F2" s="2">
+        <v>103</v>
+      </c>
+      <c r="E2" s="2">
         <v>4965967</v>
       </c>
+      <c r="F2" s="2" t="s">
+        <v>104</v>
+      </c>
       <c r="G2" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1327</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="N2" s="2">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
